--- a/ConceptMap-R5-DeviceDispense-elements-for-R4.xlsx
+++ b/ConceptMap-R5-DeviceDispense-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:32.1791472-06:00</t>
+    <t>2026-02-09T22:05:43.7601046-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -264,9 +264,6 @@
     <t>performer</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:performer</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer</t>
   </si>
   <si>
@@ -276,9 +273,6 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:performer:function</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:function</t>
   </si>
   <si>
@@ -286,9 +280,6 @@
   </si>
   <si>
     <t>actor</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:performer:actor</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:actor</t>
@@ -629,7 +620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,185 +894,146 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="E34" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-DeviceDispense-elements-for-R4.xlsx
+++ b/ConceptMap-R5-DeviceDispense-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.7601046-06:00</t>
+    <t>2026-02-17T14:42:27.1759693-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -174,7 +174,7 @@
     <t>basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:basedOn</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.basedOn</t>
   </si>
   <si>
     <t>DeviceDispense.partOf</t>
@@ -183,7 +183,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:partOf</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.partOf</t>
   </si>
   <si>
     <t>DeviceDispense.status</t>
@@ -192,7 +192,7 @@
     <t>status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:status</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.status</t>
   </si>
   <si>
     <t>DeviceDispense.statusReason</t>
@@ -201,7 +201,7 @@
     <t>statusReason</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:statusReason</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.statusReason</t>
   </si>
   <si>
     <t>DeviceDispense.category</t>
@@ -210,7 +210,7 @@
     <t>category</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:category</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.category</t>
   </si>
   <si>
     <t>DeviceDispense.device</t>
@@ -219,7 +219,7 @@
     <t>device</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:device</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.device</t>
   </si>
   <si>
     <t>DeviceDispense.subject</t>
@@ -237,7 +237,7 @@
     <t>receiver</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:receiver</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.receiver</t>
   </si>
   <si>
     <t>DeviceDispense.encounter</t>
@@ -246,7 +246,7 @@
     <t>encounter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:encounter</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.encounter</t>
   </si>
   <si>
     <t>DeviceDispense.supportingInformation</t>
@@ -255,7 +255,7 @@
     <t>supportingInformation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:supportingInformation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.supportingInformation</t>
   </si>
   <si>
     <t>DeviceDispense.performer</t>
@@ -273,7 +273,7 @@
     <t>function</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:function</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer.function</t>
   </si>
   <si>
     <t>DeviceDispense.performer.actor</t>
@@ -282,7 +282,7 @@
     <t>actor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:actor</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.performer.actor</t>
   </si>
   <si>
     <t>DeviceDispense.location</t>
@@ -291,7 +291,7 @@
     <t>location</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:location</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.location</t>
   </si>
   <si>
     <t>DeviceDispense.type</t>
@@ -300,7 +300,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:type</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.type</t>
   </si>
   <si>
     <t>DeviceDispense.quantity</t>
@@ -309,7 +309,7 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:quantity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.quantity</t>
   </si>
   <si>
     <t>DeviceDispense.preparedDate</t>
@@ -318,7 +318,7 @@
     <t>preparedDate</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:preparedDate</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.preparedDate</t>
   </si>
   <si>
     <t>DeviceDispense.whenHandedOver</t>
@@ -327,7 +327,7 @@
     <t>whenHandedOver</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:whenHandedOver</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.whenHandedOver</t>
   </si>
   <si>
     <t>DeviceDispense.destination</t>
@@ -336,7 +336,7 @@
     <t>destination</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:destination</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.destination</t>
   </si>
   <si>
     <t>DeviceDispense.note</t>
@@ -345,7 +345,7 @@
     <t>note</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:note</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.note</t>
   </si>
   <si>
     <t>DeviceDispense.usageInstruction</t>
@@ -354,7 +354,7 @@
     <t>usageInstruction</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:usageInstruction</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.usageInstruction</t>
   </si>
   <si>
     <t>DeviceDispense.eventHistory</t>
@@ -363,7 +363,7 @@
     <t>eventHistory</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:eventHistory</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense:http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDispense.eventHistory</t>
   </si>
 </sst>
 </file>
